--- a/data/trans_bre/P9_1_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P9_1_R-Habitat-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,8; 17,55</t>
+          <t>1,95; 17,61</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,98; 21,54</t>
+          <t>0,47; 21,47</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-9,72; 13,53</t>
+          <t>-8,78; 12,59</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-12,98; 8,54</t>
+          <t>-13,3; 7,83</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-7,28; 678,36</t>
+          <t>-2,93; 555,78</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>4,59; 220,63</t>
+          <t>2,1; 216,48</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-38,97; 90,82</t>
+          <t>-36,08; 86,11</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-40,33; 49,23</t>
+          <t>-40,72; 48,43</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,02; 6,69</t>
+          <t>-0,06; 6,85</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,88; 13,28</t>
+          <t>4,16; 13,44</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,93; 17,16</t>
+          <t>8,07; 17,4</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,55; 10,23</t>
+          <t>2,48; 10,23</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-0,03; 94,71</t>
+          <t>-0,44; 98,91</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>24,83; 125,78</t>
+          <t>28,07; 128,11</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>58,63; 179,7</t>
+          <t>59,17; 178,78</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>15,03; 86,49</t>
+          <t>14,8; 91,61</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,35; 9,67</t>
+          <t>3,0; 9,31</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,98; 13,35</t>
+          <t>6,46; 13,66</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,7; 10,81</t>
+          <t>4,85; 11,26</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5,13; 11,4</t>
+          <t>5,23; 11,57</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>29,9; 112,14</t>
+          <t>25,95; 111,22</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>42,65; 118,38</t>
+          <t>44,25; 124,71</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>40,49; 124,04</t>
+          <t>39,09; 124,77</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>38,21; 113,9</t>
+          <t>37,79; 117,85</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,19; 12,59</t>
+          <t>5,34; 12,9</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,36; 12,69</t>
+          <t>5,18; 12,72</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,97; 13,75</t>
+          <t>6,97; 13,54</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-4,86; 6,09</t>
+          <t>-4,81; 5,74</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>49,94; 173,55</t>
+          <t>48,35; 182,6</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>44,11; 156,57</t>
+          <t>44,17; 158,31</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>69,66; 201,48</t>
+          <t>67,27; 196,31</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-29,16; 43,19</t>
+          <t>-28,16; 41,01</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,9; 12,16</t>
+          <t>5,91; 12,07</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,38; 11,37</t>
+          <t>4,28; 11,08</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,63; 11,3</t>
+          <t>4,9; 11,26</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>4,97; 11,56</t>
+          <t>4,79; 11,57</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>56,23; 156,86</t>
+          <t>53,21; 150,6</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>31,13; 107,99</t>
+          <t>30,14; 101,46</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>35,72; 121,32</t>
+          <t>37,87; 119,82</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>30,56; 92,43</t>
+          <t>28,27; 90,36</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>5,71; 9,0</t>
+          <t>5,58; 8,91</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>7,03; 10,61</t>
+          <t>7,1; 10,77</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>7,12; 10,77</t>
+          <t>7,24; 10,76</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>4,01; 8,02</t>
+          <t>3,93; 7,94</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>58,13; 109,02</t>
+          <t>57,56; 108,24</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>53,85; 94,54</t>
+          <t>55,42; 95,49</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>64,83; 110,52</t>
+          <t>62,59; 110,42</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>26,86; 60,81</t>
+          <t>26,42; 59,79</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P9_1_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P9_1_R-Habitat-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -668,17 +668,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,95; 17,61</t>
+          <t>1,69; 18,27</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,47; 21,47</t>
+          <t>1,62; 22,33</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-8,78; 12,59</t>
+          <t>-9,08; 13,25</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -688,17 +688,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,93; 555,78</t>
+          <t>2,73; 570,09</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,1; 216,48</t>
+          <t>7,15; 221,46</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-36,08; 86,11</t>
+          <t>-37,71; 91,83</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -768,17 +768,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,06; 6,85</t>
+          <t>0,11; 7,14</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,16; 13,44</t>
+          <t>4,23; 13,88</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>8,07; 17,4</t>
+          <t>8,13; 17,15</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -788,17 +788,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 98,91</t>
+          <t>-1,23; 97,53</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>28,07; 128,11</t>
+          <t>29,58; 135,93</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>59,17; 178,78</t>
+          <t>59,08; 179,88</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -868,17 +868,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,0; 9,31</t>
+          <t>3,15; 9,54</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,46; 13,66</t>
+          <t>6,22; 13,11</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,85; 11,26</t>
+          <t>4,87; 11,12</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -888,17 +888,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>25,95; 111,22</t>
+          <t>28,86; 111,86</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>44,25; 124,71</t>
+          <t>44,65; 117,99</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>39,09; 124,77</t>
+          <t>43,32; 130,08</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -910,7 +910,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -968,17 +968,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,34; 12,9</t>
+          <t>5,41; 12,78</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,18; 12,72</t>
+          <t>5,22; 12,69</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,97; 13,54</t>
+          <t>6,63; 13,77</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -988,17 +988,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>48,35; 182,6</t>
+          <t>51,06; 182,97</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>44,17; 158,31</t>
+          <t>44,27; 161,58</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>67,27; 196,31</t>
+          <t>65,91; 197,98</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1068,17 +1068,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,91; 12,07</t>
+          <t>5,99; 11,9</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,28; 11,08</t>
+          <t>4,05; 10,81</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,9; 11,26</t>
+          <t>4,68; 11,42</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1088,17 +1088,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>53,21; 150,6</t>
+          <t>56,49; 151,19</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>30,14; 101,46</t>
+          <t>27,61; 99,87</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>37,87; 119,82</t>
+          <t>38,43; 118,92</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1168,17 +1168,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>5,58; 8,91</t>
+          <t>5,68; 8,78</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>7,1; 10,77</t>
+          <t>7,02; 10,66</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>7,24; 10,76</t>
+          <t>7,07; 10,68</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1188,17 +1188,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>57,56; 108,24</t>
+          <t>57,25; 104,34</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>55,42; 95,49</t>
+          <t>55,03; 94,78</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>62,59; 110,42</t>
+          <t>62,31; 108,94</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
